--- a/APP PRINCIPAL/pdf/Copagos/PANIFRESH.xlsx
+++ b/APP PRINCIPAL/pdf/Copagos/PANIFRESH.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniela.lima\OneDrive - Unity Seguros\Daniela Lima Colectivos\Escritorio\CUENTAS\COPAGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmejia\OneDrive - Unity Seguros\Karolina de Mejia\Escritorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="7080"/>
   </bookViews>
   <sheets>
-    <sheet name="Panifresh" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,84 +25,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+  <si>
+    <t>HOSPITALES TIPO B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDICAMENTOS </t>
+  </si>
+  <si>
+    <t>COPAGO</t>
+  </si>
+  <si>
+    <t>COASEGURO</t>
+  </si>
+  <si>
+    <t>COPAGOS Y COASEGUROS APLICABLES EN MEDIRED POR PAGO DIRECTO</t>
+  </si>
+  <si>
+    <t>HOSPITALES TIPO A</t>
+  </si>
+  <si>
+    <t>Emergencia</t>
+  </si>
+  <si>
+    <t>Hospitalizacion por emergencia</t>
+  </si>
+  <si>
+    <t>Hospitalizacion programada</t>
+  </si>
   <si>
     <t>Ambulatorio</t>
   </si>
   <si>
-    <t>Categorías</t>
-  </si>
-  <si>
-    <t>Gerentes</t>
-  </si>
-  <si>
-    <t>Administrativos</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Consulta médica</t>
-  </si>
-  <si>
-    <t>Con límite de consultas</t>
-  </si>
-  <si>
-    <t>Medicamentos</t>
-  </si>
-  <si>
-    <t>20% +Q300</t>
-  </si>
-  <si>
-    <t>Laboratorios</t>
-  </si>
-  <si>
-    <t>Procedimientos especiales</t>
-  </si>
-  <si>
-    <t>CIAM</t>
-  </si>
-  <si>
-    <t>10 Consultas</t>
-  </si>
-  <si>
-    <t>Urgencias</t>
-  </si>
-  <si>
-    <t>Colonoscopias y gastroscopias</t>
-  </si>
-  <si>
-    <t>Hospitalario (Importante no tienen incluidos La Paz)</t>
-  </si>
-  <si>
-    <t>Tipo A</t>
-  </si>
-  <si>
-    <t>Aplica Red 1. Ver en excel de G&amp;T. No aplican todos los hospitales.</t>
-  </si>
-  <si>
-    <t>Emeregencias</t>
-  </si>
-  <si>
-    <t>10% + Q750</t>
-  </si>
-  <si>
-    <t>Hospitalizaciones</t>
-  </si>
-  <si>
-    <t>20% Q750</t>
-  </si>
-  <si>
-    <t>Hospitales Tipo B</t>
-  </si>
-  <si>
-    <t>10% + Q500</t>
-  </si>
-  <si>
-    <t>10% Q750</t>
-  </si>
-  <si>
-    <t>Departamentales</t>
+    <t>COPAGOS Y COASEGUROS AMBULATORIOS UNA VEZ SATISFECHO DEDUCIBLE</t>
+  </si>
+  <si>
+    <t>MEDICAMENTOS MEDIRED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTUDIOS DIAGNOSTICOS MEDIRED </t>
+  </si>
+  <si>
+    <t>CONSULTA EXTERNA MEDIRED</t>
+  </si>
+  <si>
+    <t>COPAGOS Y COASEGUROS APLICABLES EN CIAM PAGO DIRECTO</t>
+  </si>
+  <si>
+    <t>ESTUDIOS DE LABORATORIO</t>
+  </si>
+  <si>
+    <t>URGENCIA</t>
+  </si>
+  <si>
+    <t>Consulta Externa ( 10 consultas por asegurado inluye re-consulta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colonoscopias y Gastroscopias </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPAGOS Y COASEGURO POLIZA GTVG-197467 PANIFRESH, S.A. </t>
+  </si>
+  <si>
+    <t>TOMAR NOTA QUE DEDUCIBLE ES DENTRO Y FUERA DE RED.</t>
+  </si>
+  <si>
+    <t>RED DE PROVEEDORES APLICABLES EN NUEVA VIGENCIA  RED1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Para consultar los proveedores afiliados se debe consultar en pagina </t>
+  </si>
+  <si>
+    <t>www.segurosgyt.com.gt</t>
+  </si>
+  <si>
+    <t>Póliza</t>
+  </si>
+  <si>
+    <t>Afiliadas</t>
+  </si>
+  <si>
+    <t>No aplica</t>
+  </si>
+  <si>
+    <t>Vencimiento</t>
+  </si>
+  <si>
+    <t>Aseguradora</t>
+  </si>
+  <si>
+    <t>G&amp;T</t>
+  </si>
+  <si>
+    <t>Asistencia Médica</t>
+  </si>
+  <si>
+    <t>Deducible</t>
+  </si>
+  <si>
+    <t>Dentro y fuera de RED: Q500 / Q1,500</t>
   </si>
 </sst>
 </file>
@@ -109,9 +131,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;Q&quot;#,##0;[Red]\-&quot;Q&quot;#,##0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;Q&quot;* #,##0.00_-;\-&quot;Q&quot;* #,##0.00_-;_-&quot;Q&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +150,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +181,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,25 +206,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,81 +247,124 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,277 +642,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E22"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="26">
+        <v>197467</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="27">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="16">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="16">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="18">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B33" s="9">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="9">
+        <v>0</v>
+      </c>
+      <c r="C34" s="10">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="21">
+        <v>0</v>
+      </c>
+      <c r="C36" s="22">
         <v>40</v>
       </c>
-      <c r="D3" s="4">
-        <v>40</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="9">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10">
         <v>250</v>
       </c>
-      <c r="D9" s="4">
-        <v>250</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>250</v>
-      </c>
-      <c r="D10" s="4">
-        <v>250</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4">
-        <v>300</v>
-      </c>
-      <c r="D11" s="4">
-        <v>300</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4">
-        <v>250</v>
-      </c>
-      <c r="D12" s="4">
-        <v>250</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="12" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="12" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="12"/>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="7"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="7"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B13:E13"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A41" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>